--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RPA Projects\IACET\MailMonitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\Email_Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830898FF-AA0A-4F2C-A3CF-DD2DD78B390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE4C826-F78A-4CB6-9276-C0FCD2AA5AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>TopEmail</t>
+  </si>
+  <si>
+    <t>MoveMailFolder</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +568,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -676,7 +682,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\Email_Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE4C826-F78A-4CB6-9276-C0FCD2AA5AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00999DA-AE3E-455D-A0CC-6461EBDCB0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
     <t>MoveMailFolder</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>IACET</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1684,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
